--- a/GunfireDungeon_Godot/excelTool/excel/Table2.xlsx
+++ b/GunfireDungeon_Godot/excelTool/excel/Table2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27855" windowHeight="15495"/>
+    <workbookView windowWidth="27855" windowHeight="14280"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1035,7 +1035,7 @@
   <dimension ref="A1:AP4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
